--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T13:43:20+00:00</t>
+    <t>2023-02-07T13:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T09:57:31+00:00</t>
+    <t>2023-02-08T11:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>92</v>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:02:36+00:00</t>
+    <t>2023-02-08T11:03:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:16:58+00:00</t>
+    <t>2023-02-08T12:21:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:21:52+00:00</t>
+    <t>2023-02-08T12:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:26:30+00:00</t>
+    <t>2023-02-08T12:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:26:48+00:00</t>
+    <t>2023-02-08T12:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T14:59:12+00:00</t>
+    <t>2023-02-08T15:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T08:27:41+00:00</t>
+    <t>2023-02-09T09:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T09:47:00+00:00</t>
+    <t>2023-02-09T09:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T10:39:24+00:00</t>
+    <t>2023-02-09T10:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T10:40:09+00:00</t>
+    <t>2023-02-09T12:01:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T12:01:57+00:00</t>
+    <t>2023-02-09T12:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T12:02:42+00:00</t>
+    <t>2023-02-09T13:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T13:08:40+00:00</t>
+    <t>2023-02-09T13:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T13:39:21+00:00</t>
+    <t>2023-02-09T15:03:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T15:03:43+00:00</t>
+    <t>2023-02-09T15:04:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T15:04:10+00:00</t>
+    <t>2023-02-09T15:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T15:19:28+00:00</t>
+    <t>2023-02-10T06:41:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:41:50+00:00</t>
+    <t>2023-02-10T06:42:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:42:24+00:00</t>
+    <t>2023-02-10T06:43:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:43:03+00:00</t>
+    <t>2023-02-10T07:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T07:15:04+00:00</t>
+    <t>2023-02-10T07:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T07:15:43+00:00</t>
+    <t>2023-02-10T13:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:19:16+00:00</t>
+    <t>2023-02-10T13:19:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:19:37+00:00</t>
+    <t>2023-02-10T13:23:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:23:24+00:00</t>
+    <t>2023-02-10T13:48:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:48:02+00:00</t>
+    <t>2023-02-10T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:53:42+00:00</t>
+    <t>2023-02-10T13:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:54:21+00:00</t>
+    <t>2023-02-10T14:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:00:13+00:00</t>
+    <t>2023-02-13T07:29:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:29:47+00:00</t>
+    <t>2023-02-13T07:44:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:44:02+00:00</t>
+    <t>2023-02-13T07:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:45:28+00:00</t>
+    <t>2023-02-13T07:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:50:39+00:00</t>
+    <t>2023-02-13T10:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:40:45+00:00</t>
+    <t>2023-02-13T10:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:45:36+00:00</t>
+    <t>2023-02-13T11:15:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:15:25+00:00</t>
+    <t>2023-02-13T11:16:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:16:11+00:00</t>
+    <t>2023-02-13T11:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:45:47+00:00</t>
+    <t>2023-02-13T11:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:48:16+00:00</t>
+    <t>2023-02-13T12:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:16:03+00:00</t>
+    <t>2023-02-13T12:20:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:20:57+00:00</t>
+    <t>2023-02-13T12:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:39:54+00:00</t>
+    <t>2023-02-13T14:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T14:47:57+00:00</t>
+    <t>2023-02-13T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T14:52:44+00:00</t>
+    <t>2023-02-13T15:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:02:26+00:00</t>
+    <t>2023-02-13T15:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:03:14+00:00</t>
+    <t>2023-02-13T15:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:10:15+00:00</t>
+    <t>2023-02-13T15:15:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:15:01+00:00</t>
+    <t>2023-02-13T15:15:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:15:32+00:00</t>
+    <t>2023-02-13T15:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:20:12+00:00</t>
+    <t>2023-02-13T15:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:22:00+00:00</t>
+    <t>2023-02-13T19:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:08:35+00:00</t>
+    <t>2023-02-13T19:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:10:14+00:00</t>
+    <t>2023-02-13T19:11:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:11:03+00:00</t>
+    <t>2023-02-14T06:06:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:06:47+00:00</t>
+    <t>2023-02-14T06:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:14:44+00:00</t>
+    <t>2023-02-14T06:22:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:22:43+00:00</t>
+    <t>2023-02-14T07:22:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T07:22:19+00:00</t>
+    <t>2023-02-14T08:50:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:50:38+00:00</t>
+    <t>2023-02-14T09:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:43:04+00:00</t>
+    <t>2023-02-14T09:55:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:55:25+00:00</t>
+    <t>2023-02-14T10:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T10:08:14+00:00</t>
+    <t>2023-02-14T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:00:57+00:00</t>
+    <t>2023-02-14T11:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:01:25+00:00</t>
+    <t>2023-02-14T11:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:18:24+00:00</t>
+    <t>2023-02-14T12:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T12:20:05+00:00</t>
+    <t>2023-02-14T14:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T14:33:23+00:00</t>
+    <t>2023-02-14T14:33:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T14:33:42+00:00</t>
+    <t>2023-02-14T16:15:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T16:15:08+00:00</t>
+    <t>2023-02-15T07:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T07:08:17+00:00</t>
+    <t>2023-02-15T07:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:18:52+00:00</t>
+    <t>2023-02-15T09:19:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-suppression.xlsx
+++ b/StructureDefinition-viral-load-suppression.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:19:32+00:00</t>
+    <t>2023-02-15T10:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
